--- a/Examples/transition_matrix_analysis.xlsx
+++ b/Examples/transition_matrix_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Kaggle\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E99D0-097D-4BC5-91A2-CEEF6329773A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7E479-EE36-4E87-9669-505B6D8B22CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A395D820-BA32-42D4-95B8-9380095EDB73}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -46,6 +46,9 @@
   <si>
     <t>step</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -55,7 +58,14 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,17 +97,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC23198-94B1-4155-BD44-7B184C494D18}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +443,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -447,8 +463,24 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <f>SUM(C2:F2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.89063312960904295</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.10936687039095705</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -464,8 +496,24 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="0">SUM(C3:F3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -481,8 +529,24 @@
       <c r="F4" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -498,8 +562,24 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -515,8 +595,23 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -532,8 +627,23 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -550,8 +660,24 @@
       <c r="E9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="array" ref="J9:M9">MMULT(J8:M8,$J$2:$M$5)</f>
+        <v>89.063312960904298</v>
+      </c>
+      <c r="K9" s="2">
+        <v>26.936687039095705</v>
+      </c>
+      <c r="L9" s="2">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -568,8 +694,24 @@
       <c r="E10" s="2">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="array" ref="J10:M10">MMULT(J9:M9,$J$2:$M$5)</f>
+        <v>79.322737155719835</v>
+      </c>
+      <c r="K10" s="2">
+        <v>31.289925436461033</v>
+      </c>
+      <c r="L10" s="2">
+        <v>13.087337407819142</v>
+      </c>
+      <c r="M10" s="2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -586,8 +728,24 @@
       <c r="E11" s="2">
         <v>11.169999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="array" ref="J11:M11">MMULT(J10:M10,$J$2:$M$5)</f>
+        <v>70.647457642154265</v>
+      </c>
+      <c r="K11" s="2">
+        <v>33.707219862734391</v>
+      </c>
+      <c r="L11" s="2">
+        <v>15.419121272765606</v>
+      </c>
+      <c r="M11" s="2">
+        <v>11.226201222345743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>4</v>
       </c>
@@ -604,8 +762,24 @@
       <c r="E12" s="2">
         <v>15.666999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="array" ref="J12:M12">MMULT(J11:M11,$J$2:$M$5)</f>
+        <v>62.920966298754152</v>
+      </c>
+      <c r="K12" s="2">
+        <v>34.692267233587629</v>
+      </c>
+      <c r="L12" s="2">
+        <v>17.534828863482801</v>
+      </c>
+      <c r="M12" s="2">
+        <v>15.851937604175426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
@@ -622,8 +796,24 @@
       <c r="E13" s="2">
         <v>20.731299999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="array" ref="J13:M13">MMULT(J12:M12,$J$2:$M$5)</f>
+        <v>56.039497132684531</v>
+      </c>
+      <c r="K13" s="2">
+        <v>34.635282952939725</v>
+      </c>
+      <c r="L13" s="2">
+        <v>19.212833651155485</v>
+      </c>
+      <c r="M13" s="2">
+        <v>21.112386263220266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>6</v>
       </c>
@@ -640,8 +830,24 @@
       <c r="E14" s="2">
         <v>26.246829999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="array" ref="J14:M14">MMULT(J13:M13,$J$2:$M$5)</f>
+        <v>49.910632712999814</v>
+      </c>
+      <c r="K14" s="2">
+        <v>33.837090782036498</v>
+      </c>
+      <c r="L14" s="2">
+        <v>20.376040146396782</v>
+      </c>
+      <c r="M14" s="2">
+        <v>26.87623635856691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>7</v>
       </c>
@@ -658,8 +864,24 @@
       <c r="E15" s="2">
         <v>32.077776999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="array" ref="J15:M15">MMULT(J14:M14,$J$2:$M$5)</f>
+        <v>44.4520630139465</v>
+      </c>
+      <c r="K15" s="2">
+        <v>32.528242324682509</v>
+      </c>
+      <c r="L15" s="2">
+        <v>21.030646258885046</v>
+      </c>
+      <c r="M15" s="2">
+        <v>32.989048402485942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>8</v>
       </c>
@@ -676,8 +898,24 @@
       <c r="E16" s="2">
         <v>38.089794699999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="array" ref="J16:M16">MMULT(J15:M15,$J$2:$M$5)</f>
+        <v>39.590479999689556</v>
+      </c>
+      <c r="K16" s="2">
+        <v>30.884176874002954</v>
+      </c>
+      <c r="L16" s="2">
+        <v>21.227100846156034</v>
+      </c>
+      <c r="M16" s="2">
+        <v>39.298242280151456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>9</v>
       </c>
@@ -694,8 +932,24 @@
       <c r="E17" s="2">
         <v>44.161355530000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="array" ref="J17:M17">MMULT(J16:M16,$J$2:$M$5)</f>
+        <v>35.260593104847729</v>
+      </c>
+      <c r="K17" s="2">
+        <v>29.037228394044188</v>
+      </c>
+      <c r="L17" s="2">
+        <v>21.035805967109816</v>
+      </c>
+      <c r="M17" s="2">
+        <v>45.666372533998263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10</v>
       </c>
@@ -712,8 +966,24 @@
       <c r="E18" s="2">
         <v>50.188945003000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18:M18">MMULT(J17:M17,$J$2:$M$5)</f>
+        <v>31.404252388841574</v>
+      </c>
+      <c r="K18" s="2">
+        <v>27.086123431241507</v>
+      </c>
+      <c r="L18" s="2">
+        <v>20.532509855785708</v>
+      </c>
+      <c r="M18" s="2">
+        <v>51.977114324131207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>11</v>
       </c>
@@ -730,8 +1000,24 @@
       <c r="E19" s="2">
         <v>56.088535473700006</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="array" ref="J19:M19">MMULT(J18:M18,$J$2:$M$5)</f>
+        <v>27.969667588106233</v>
+      </c>
+      <c r="K19" s="2">
+        <v>25.103483545728547</v>
+      </c>
+      <c r="L19" s="2">
+        <v>19.789981585298296</v>
+      </c>
+      <c r="M19" s="2">
+        <v>58.136867280866923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>12</v>
       </c>
@@ -748,8 +1034,24 @@
       <c r="E20" s="2">
         <v>61.794923368270005</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="array" ref="J20:M20">MMULT(J19:M19,$J$2:$M$5)</f>
+        <v>24.910712578119668</v>
+      </c>
+      <c r="K20" s="2">
+        <v>23.141741846569406</v>
+      </c>
+      <c r="L20" s="2">
+        <v>18.873683818854516</v>
+      </c>
+      <c r="M20" s="2">
+        <v>64.073861756456409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>13</v>
       </c>
@@ -766,8 +1068,24 @@
       <c r="E21" s="2">
         <v>67.259941610593003</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="array" ref="J21:M21">MMULT(J20:M20,$J$2:$M$5)</f>
+        <v>22.186305904242072</v>
+      </c>
+      <c r="K21" s="2">
+        <v>21.237800151133122</v>
+      </c>
+      <c r="L21" s="2">
+        <v>17.839927042512045</v>
+      </c>
+      <c r="M21" s="2">
+        <v>69.735966902112764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>14</v>
       </c>
@@ -784,8 +1102,24 @@
       <c r="E22" s="2">
         <v>72.450178110772299</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="array" ref="J22:M22">MMULT(J21:M21,$J$2:$M$5)</f>
+        <v>19.759859061958704</v>
+      </c>
+      <c r="K22" s="2">
+        <v>19.416686963189868</v>
+      </c>
+      <c r="L22" s="2">
+        <v>16.735508959985054</v>
+      </c>
+      <c r="M22" s="2">
+        <v>75.087945014866378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>15</v>
       </c>
@@ -802,8 +1136,24 @@
       <c r="E23" s="2">
         <v>77.344580367228971</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="array" ref="J23:M23">MMULT(J22:M22,$J$2:$M$5)</f>
+        <v>17.598785116985887</v>
+      </c>
+      <c r="K23" s="2">
+        <v>17.694423515524711</v>
+      </c>
+      <c r="L23" s="2">
+        <v>15.598193664627512</v>
+      </c>
+      <c r="M23" s="2">
+        <v>80.1085977028619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>16</v>
       </c>
@@ -820,8 +1170,24 @@
       <c r="E24" s="2">
         <v>81.93216326151331</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="array" ref="J24:M24">MMULT(J23:M23,$J$2:$M$5)</f>
+        <v>15.674061066058188</v>
+      </c>
+      <c r="K24" s="2">
+        <v>16.080262863347471</v>
+      </c>
+      <c r="L24" s="2">
+        <v>14.457620268344201</v>
+      </c>
+      <c r="M24" s="2">
+        <v>84.788055802250156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>17</v>
       </c>
@@ -838,8 +1204,24 @@
       <c r="E25" s="2">
         <v>86.209933094053852</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <v>17</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="array" ref="J25:M25">MMULT(J24:M24,$J$2:$M$5)</f>
+        <v>13.959838060946657</v>
+      </c>
+      <c r="K25" s="2">
+        <v>14.578433295789509</v>
+      </c>
+      <c r="L25" s="2">
+        <v>13.336386760510432</v>
+      </c>
+      <c r="M25" s="2">
+        <v>89.125341882753418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>18</v>
       </c>
@@ -856,8 +1238,24 @@
       <c r="E26" s="2">
         <v>90.181076101322219</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="array" ref="J26:M26">MMULT(J25:M25,$J$2:$M$5)</f>
+        <v>12.433094261056354</v>
+      </c>
+      <c r="K26" s="2">
+        <v>13.189490436521911</v>
+      </c>
+      <c r="L26" s="2">
+        <v>12.251157391515205</v>
+      </c>
+      <c r="M26" s="2">
+        <v>93.126257910906546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>19</v>
       </c>
@@ -874,8 +1272,24 @@
       <c r="E27" s="2">
         <v>93.853420717333179</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <v>19</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="array" ref="J27:M27">MMULT(J26:M26,$J$2:$M$5)</f>
+        <v>11.073325652448851</v>
+      </c>
+      <c r="K27" s="2">
+        <v>11.911360957825032</v>
+      </c>
+      <c r="L27" s="2">
+        <v>11.213708261365026</v>
+      </c>
+      <c r="M27" s="2">
+        <v>96.801605128361103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>20</v>
       </c>
@@ -892,8 +1306,24 @@
       <c r="E28" s="2">
         <v>97.238160647477329</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="array" ref="J28:M28">MMULT(J27:M27,$J$2:$M$5)</f>
+        <v>9.8622706810206182</v>
+      </c>
+      <c r="K28" s="2">
+        <v>10.740143737688259</v>
+      </c>
+      <c r="L28" s="2">
+        <v>10.231867974520524</v>
+      </c>
+      <c r="M28" s="2">
+        <v>100.16571760677061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>21</v>
       </c>
@@ -910,8 +1340,24 @@
       <c r="E29" s="2">
         <v>100.34881433890563</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <v>21</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="array" ref="J29:M29">MMULT(J28:M28,$J$2:$M$5)</f>
+        <v>8.7836650016889006</v>
+      </c>
+      <c r="K29" s="2">
+        <v>9.6707206694823249</v>
+      </c>
+      <c r="L29" s="2">
+        <v>9.3103363297020181</v>
+      </c>
+      <c r="M29" s="2">
+        <v>103.23527799912677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>22</v>
       </c>
@@ -928,8 +1374,24 @@
       <c r="E30" s="2">
         <v>103.20039161822771</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <v>22</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="array" ref="J30:M30">MMULT(J29:M29,$J$2:$M$5)</f>
+        <v>7.8230230498916047</v>
+      </c>
+      <c r="K30" s="2">
+        <v>8.6972184873831555</v>
+      </c>
+      <c r="L30" s="2">
+        <v>8.451379564687878</v>
+      </c>
+      <c r="M30" s="2">
+        <v>106.02837889803737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>23</v>
       </c>
@@ -946,12 +1408,74 @@
       <c r="E31" s="3">
         <v>105.80873746276535</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="I31">
+        <v>23</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="array" ref="J31:M31">MMULT(J30:M30,$J$2:$M$5)</f>
+        <v>6.9674435019286403</v>
+      </c>
+      <c r="K31" s="2">
+        <v>7.8133543378694892</v>
+      </c>
+      <c r="L31" s="2">
+        <v>7.6554093927581448</v>
+      </c>
+      <c r="M31" s="2">
+        <v>108.56379276744374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="array" ref="B32:E32">MMULT(B31:E31,$C$2:$F$5)</f>
+        <v>7.9766443076872555</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7.5988549890576875</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7.2344763566247527</v>
+      </c>
+      <c r="E32" s="3">
+        <v>108.19002434663034</v>
+      </c>
+      <c r="I32">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="array" ref="J32:M32">MMULT(J31:M31,$J$2:$M$5)</f>
+        <v>6.2054360114968947</v>
+      </c>
+      <c r="K32" s="2">
+        <v>7.0126909607273369</v>
+      </c>
+      <c r="L32" s="2">
+        <v>6.9214574425045985</v>
+      </c>
+      <c r="M32" s="2">
+        <v>110.86041558527118</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.45">
+      <c r="J33" s="4">
+        <f>J32/B32-1</f>
+        <v>-0.22204930141907053</v>
+      </c>
+      <c r="K33" s="4">
+        <f>K32/C32-1</f>
+        <v>-7.7138467463114369E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <f>L32/D32-1</f>
+        <v>-4.3267667027969026E-2</v>
+      </c>
+      <c r="M33" s="4">
+        <f>M32/E32-1</f>
+        <v>2.4682416468316593E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
